--- a/data/constants/Resuspendido.xlsx
+++ b/data/constants/Resuspendido.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INGENIERIA\Documents\Programacion\Python\Resuspendido\data\constants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INGENIERIA\AppData\Local\Temp\fz3temp-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28275" windowHeight="7080" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28275" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AÑO_EVALUADO" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>DH</t>
   </si>
@@ -189,12 +189,6 @@
   </si>
   <si>
     <t>C3C4</t>
-  </si>
-  <si>
-    <t>C5E</t>
-  </si>
-  <si>
-    <t>SC5E</t>
   </si>
   <si>
     <t>M</t>
@@ -1709,6 +1703,9 @@
   </si>
   <si>
     <t>E24h</t>
+  </si>
+  <si>
+    <t>C3-C4</t>
   </si>
 </sst>
 </file>
@@ -1941,6 +1938,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1959,8 +1958,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2286,90 +2283,90 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2381,17 +2378,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B11" s="4">
         <v>28</v>
@@ -2477,7 +2474,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B12" s="4">
         <v>35</v>
@@ -2485,7 +2482,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B13" s="4">
         <v>40</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4">
         <v>0.2</v>
@@ -2501,7 +2498,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4">
         <v>30</v>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4">
         <v>42</v>
@@ -2614,31 +2611,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="F1" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="F1" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="28"/>
+      <c r="F2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="30"/>
       <c r="H2" s="16">
         <f>0.26^2</f>
         <v>6.7600000000000007E-2</v>
@@ -2649,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="12">
         <v>0.132187500561876</v>
@@ -2660,19 +2657,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="12">
         <v>0.15960213848747382</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -2691,7 +2688,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="12">
         <v>8.1141811971816996E-2</v>
@@ -2723,7 +2720,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12">
         <v>4.8874054888955396E-2</v>
@@ -2744,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="12">
         <v>0.17974121565907245</v>
@@ -2765,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="12">
         <v>4.8729186518208865E-2</v>
@@ -2786,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="12">
         <v>0.67882948337874327</v>
@@ -2807,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="12">
         <v>0.44407760936435919</v>
@@ -2828,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12">
         <v>0.18877738287352139</v>
@@ -2849,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="12">
         <v>0.282322772350384</v>
@@ -2870,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12">
         <v>5.4119828087697622E-2</v>
@@ -2891,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="12">
         <v>0.3427544613021738</v>
@@ -2912,13 +2909,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="12">
         <v>6.0813562103157415E-2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G15" s="17">
         <v>35</v>
@@ -2933,13 +2930,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="12">
         <v>6.0238102197318837E-2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G16" s="17">
         <v>40</v>
@@ -2954,13 +2951,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12">
         <v>0.54882204726542627</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="17">
         <v>0.2</v>
@@ -2975,7 +2972,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="12">
         <v>0.67882948337874327</v>
@@ -2986,7 +2983,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="12">
         <v>0.38813544731004695</v>
@@ -2997,7 +2994,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="12">
         <v>0.12460620620362835</v>
@@ -3008,7 +3005,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="12">
         <v>4.9528027780557628E-2</v>
@@ -3019,7 +3016,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="12">
         <v>1.3559730166468762</v>
@@ -3030,7 +3027,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="12">
         <v>2.2134743486225621</v>
@@ -3041,7 +3038,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="12">
         <v>0.17177748691878877</v>
@@ -3052,7 +3049,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="12">
         <v>1.2049822172428106</v>
@@ -3063,7 +3060,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="12">
         <v>0.47134543897953568</v>
@@ -3074,7 +3071,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="12">
         <v>0.17177748691878877</v>
@@ -3085,7 +3082,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="12">
         <v>0.17097479350228567</v>
@@ -3096,7 +3093,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="12">
         <v>2.3217355248126346</v>
@@ -3107,7 +3104,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" s="12">
         <v>4.9442846729981199E-2</v>
@@ -3118,7 +3115,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="12">
         <v>6.7953164540645913E-2</v>
@@ -3129,7 +3126,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="12">
         <v>2.9267469080919399</v>
@@ -3140,7 +3137,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="12">
         <v>9.2822181375460458E-2</v>
@@ -3151,7 +3148,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="12">
         <v>9.2822181375460458E-2</v>
@@ -3162,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="12">
         <v>4.9442846729981199E-2</v>
@@ -3173,7 +3170,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" s="12">
         <v>0.19219527918622728</v>
@@ -3184,7 +3181,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="12">
         <v>0.4527379026381349</v>
@@ -3195,7 +3192,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="12">
         <v>4.8729186518208865E-2</v>
@@ -3206,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" s="12">
         <v>0.4527379026381349</v>
@@ -3217,7 +3214,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="12">
         <v>1.4843235308902767</v>
@@ -3228,7 +3225,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" s="12">
         <v>0.38813544731004695</v>
@@ -3239,7 +3236,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42" s="12">
         <v>4.9073943977256312E-2</v>
@@ -3250,7 +3247,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" s="12">
         <v>3.1536192662333149</v>
@@ -3279,7 +3276,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4">
         <v>0.101484</v>
@@ -3287,7 +3284,7 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4">
         <v>0.132493</v>
@@ -3306,7 +3303,7 @@
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -3314,7 +3311,7 @@
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>0.2</v>
@@ -3322,7 +3319,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4">
         <v>0.5</v>
@@ -3341,7 +3338,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3349,7 +3346,7 @@
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4">
         <v>0.2</v>
@@ -3357,7 +3354,7 @@
     </row>
     <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4">
         <v>0.5</v>
@@ -3380,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1">
         <v>0.101484</v>
@@ -3388,7 +3385,7 @@
     </row>
     <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
         <v>0.132493</v>
@@ -3402,12 +3399,12 @@
         <v>42.284999999999997</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>0.9</v>
@@ -3415,7 +3412,7 @@
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2">
         <v>0.45</v>
@@ -3434,7 +3431,7 @@
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2">
         <v>0.9</v>
@@ -3442,7 +3439,7 @@
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2">
         <v>0.45</v>
@@ -3450,7 +3447,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3">
         <v>1.621</v>
@@ -3499,55 +3496,55 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="R11" s="30" t="s">
+      <c r="A11" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>118</v>
       </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
@@ -3564,10 +3561,10 @@
         <v>15</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>16</v>
@@ -3585,16 +3582,16 @@
         <v>20</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -4675,7 +4672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B6:Y8"/>
     </sheetView>
   </sheetViews>
@@ -4683,155 +4680,155 @@
   <sheetData>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="I4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="L4" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="N4" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="O4" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="Q4" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="R4" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="S4" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="T4" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="U4" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="V4" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="W4" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="X4" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="Y4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="X4" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y4" s="23" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="25">
         <v>8.2395031285908329E-3</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="25">
         <v>5.269452047674864E-3</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="25">
         <v>4.5784302501797377E-3</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="25">
         <v>6.3641951387950133E-3</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="25">
         <v>1.3407068757120938E-2</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="25">
         <v>3.6763577625088237E-2</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="25">
         <v>6.0515908352585086E-2</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="25">
         <v>6.2770933709320409E-2</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="25">
         <v>5.6182656542495171E-2</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="25">
         <v>5.544689389985015E-2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="25">
         <v>5.4149283338701254E-2</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="25">
         <v>5.4061038135391835E-2</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="25">
         <v>5.4336105213068586E-2</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="25">
         <v>5.4826925365160734E-2</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="25">
         <v>5.6920591924475954E-2</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="25">
         <v>5.4564481008215246E-2</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="25">
         <v>5.6599710561365764E-2</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="25">
         <v>6.2009096752785729E-2</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="25">
         <v>5.8328351061206707E-2</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="25">
         <v>5.152245836243205E-2</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="25">
         <v>4.6911202146598663E-2</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="25">
         <v>4.1802411464486496E-2</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="25">
         <v>2.9244838409912134E-2</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="25">
         <v>1.5184886804498587E-2</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="26">
         <f>A5</f>
         <v>8.2395031285908329E-3</v>
       </c>
@@ -4853,34 +4850,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4900,46 +4897,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
